--- a/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
+++ b/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="446">
   <si>
     <t>NEED RUNNING - 3rd/green AC enabled</t>
   </si>
@@ -1358,6 +1358,15 @@
   </si>
   <si>
     <t>13.737s</t>
+  </si>
+  <si>
+    <t>0.139s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-2017 17:07:52: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
+ |[Not SOAP Fault] Response is a SOAP Fault| 
+ |[XPath Match] XPathContains comparison failed for path [exists(//messageID)], expecting [true], actual was [false]| 
+ |[Script Assertion] Error:findReturnedMessageID: The message ID is not found in the response. Expression: (messageID != null). Values: messageID = null| </t>
   </si>
 </sst>
 </file>
@@ -2814,17 +2823,17 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="15">
-        <v>42795.467617152775</v>
+        <v>138</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>42797.71380347222</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>237</v>

--- a/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
+++ b/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="451">
   <si>
     <t>NEED RUNNING - 3rd/green AC enabled</t>
   </si>
@@ -1367,6 +1367,23 @@
  |[Not SOAP Fault] Response is a SOAP Fault| 
  |[XPath Match] XPathContains comparison failed for path [exists(//messageID)], expecting [true], actual was [false]| 
  |[Script Assertion] Error:findReturnedMessageID: The message ID is not found in the response. Expression: (messageID != null). Values: messageID = null| </t>
+  </si>
+  <si>
+    <t>1.083s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-03-2017 11:12:43: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
+ |org.apache.http.conn.HttpHostConnectException: Connection to http://wltdgt02.cc.cec.eu.int:1063 refused| </t>
+  </si>
+  <si>
+    <t>1.021s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-03-2017 11:29:09: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
+ |org.apache.http.conn.HttpHostConnectException: Connection to http://wltdgt02.cc.cec.eu.int:1063 refused| </t>
+  </si>
+  <si>
+    <t>2.347s</t>
   </si>
 </sst>
 </file>
@@ -2786,11 +2803,11 @@
       <c r="G3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="15">
-        <v>42795.467587094907</v>
+      <c r="H3" s="15" t="n">
+        <v>42800.659691967594</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="13" t="s">

--- a/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
+++ b/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20940" windowHeight="9855" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20940" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="TESTS_WS" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="440">
   <si>
     <t>NEED RUNNING - 3rd/green AC enabled</t>
   </si>
@@ -1246,12 +1246,6 @@
     <t>0.686s</t>
   </si>
   <si>
-    <t>2.261s</t>
-  </si>
-  <si>
-    <t>2.128s</t>
-  </si>
-  <si>
     <t>12.366s</t>
   </si>
   <si>
@@ -1327,63 +1321,28 @@
     <t>18.212s</t>
   </si>
   <si>
-    <t>4.953s</t>
-  </si>
-  <si>
     <t>2.214s</t>
   </si>
   <si>
     <t>2.12s</t>
   </si>
   <si>
-    <t>7.016s</t>
-  </si>
-  <si>
     <t>0.113s</t>
   </si>
   <si>
     <t>4.197s</t>
   </si>
   <si>
-    <t>0.25s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-03-2017 09:52:42: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
- |[Not SOAP Fault] Response is a SOAP Fault| 
- |[XPath Match] XPathContains comparison failed for path [exists(//messageID)], expecting [true], actual was [false]| 
- |[Script Assertion] Error:findReturnedMessageID: The message ID is not found in the response. Expression: (messageID != null). Values: messageID = null| </t>
-  </si>
-  <si>
     <t>7.218s</t>
   </si>
   <si>
     <t>13.737s</t>
   </si>
   <si>
-    <t>0.139s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-03-2017 17:07:52: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
- |[Not SOAP Fault] Response is a SOAP Fault| 
- |[XPath Match] XPathContains comparison failed for path [exists(//messageID)], expecting [true], actual was [false]| 
- |[Script Assertion] Error:findReturnedMessageID: The message ID is not found in the response. Expression: (messageID != null). Values: messageID = null| </t>
-  </si>
-  <si>
-    <t>1.083s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-03-2017 11:12:43: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
- |org.apache.http.conn.HttpHostConnectException: Connection to http://wltdgt02.cc.cec.eu.int:1063 refused| </t>
-  </si>
-  <si>
-    <t>1.021s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06-03-2017 11:29:09: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
- |org.apache.http.conn.HttpHostConnectException: Connection to http://wltdgt02.cc.cec.eu.int:1063 refused| </t>
-  </si>
-  <si>
     <t>2.347s</t>
+  </si>
+  <si>
+    <t>3.504s</t>
   </si>
 </sst>
 </file>
@@ -2685,26 +2644,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="76.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="97.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="64.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="76.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="97.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="64.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" x14ac:dyDescent="0.3">
@@ -2803,11 +2762,11 @@
       <c r="G3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" s="15">
         <v>42800.659691967594</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="13" t="s">
@@ -2840,17 +2799,17 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="15" t="n">
-        <v>42797.71380347222</v>
+        <v>137</v>
+      </c>
+      <c r="H4" s="15">
+        <v>42800.720185057871</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>237</v>
@@ -2981,7 +2940,7 @@
         <v>42795.467644259261</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
@@ -3057,7 +3016,7 @@
         <v>42795.467791226853</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
@@ -3126,7 +3085,7 @@
         <v>42795.467820625003</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -3206,7 +3165,7 @@
         <v>42795.467947743055</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
@@ -3301,7 +3260,7 @@
         <v>42795.468027395837</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
@@ -3425,7 +3384,7 @@
         <v>42795.468124953702</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
@@ -3779,7 +3738,7 @@
         <v>42795.468320856482</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
@@ -4191,7 +4150,7 @@
         <v>42795.46847284722</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
@@ -4224,7 +4183,7 @@
         <v>42795.468527337965</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
@@ -4406,7 +4365,7 @@
         <v>42795.468628888892</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
@@ -4621,7 +4580,7 @@
         <v>42795.468828310186</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
@@ -4712,7 +4671,7 @@
         <v>42795.468858101849</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
@@ -4774,7 +4733,7 @@
         <v>42795.468907546296</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
@@ -4807,7 +4766,7 @@
         <v>42795.468957175923</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
@@ -4902,7 +4861,7 @@
         <v>42795.469054687499</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
@@ -4964,7 +4923,7 @@
         <v>42795.469104629628</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
@@ -4997,7 +4956,7 @@
         <v>42795.469153692131</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
@@ -5030,7 +4989,7 @@
         <v>42795.469202349537</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
@@ -5092,7 +5051,7 @@
         <v>42795.469251168979</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
@@ -5125,7 +5084,7 @@
         <v>42795.469300081022</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
@@ -5158,7 +5117,7 @@
         <v>42795.469348888888</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
@@ -5191,7 +5150,7 @@
         <v>42795.469399953705</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
@@ -5499,7 +5458,7 @@
         <v>42795.46964422454</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
@@ -5561,7 +5520,7 @@
         <v>42795.469692928244</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
@@ -5594,7 +5553,7 @@
         <v>42795.469759409723</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
@@ -5627,7 +5586,7 @@
         <v>42795.469816620367</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
@@ -5689,7 +5648,7 @@
         <v>42795.469818078702</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
@@ -5722,7 +5681,7 @@
         <v>42795.469857812503</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
@@ -5755,7 +5714,7 @@
         <v>42795.469918263887</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
@@ -5877,7 +5836,7 @@
         <v>42795.469974733795</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
@@ -5960,11 +5919,11 @@
       <c r="G104" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H104" s="15" t="n">
-        <v>42796.41161730324</v>
+      <c r="H104" s="15">
+        <v>42796.411617303238</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
@@ -6057,7 +6016,7 @@
         <v>42795.470304444447</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
@@ -6090,7 +6049,7 @@
         <v>42795.470333715275</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
@@ -6148,11 +6107,11 @@
       <c r="G110" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H110" s="15" t="n">
+      <c r="H110" s="15">
         <v>42796.41281199074</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
@@ -6243,7 +6202,7 @@
         <v>42795.47044730324</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
@@ -6392,7 +6351,7 @@
         <v>42795.470449780092</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
@@ -8199,26 +8158,26 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="76.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="97.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="64.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="76.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="97.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="64.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" x14ac:dyDescent="0.3">

--- a/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
+++ b/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TESTS_JMS!$A$1:$K$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TESTS_WS!$A$1:$K$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TESTS_WS!$A$1:$K$125</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="440">
   <si>
     <t>NEED RUNNING - 3rd/green AC enabled</t>
   </si>
@@ -2642,10 +2642,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O179"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="N7" s="8">
         <f>COUNTIF(G:G, "PASS")</f>
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="N8" s="8">
         <f>COUNTIF(G:G, "FAIL")</f>
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N9" s="8">
         <f>COUNTIF(G:G, "N/A")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -3019,15 +3019,13 @@
         <v>408</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>384</v>
-      </c>
+      <c r="K10" s="1"/>
       <c r="M10" s="7" t="s">
         <v>220</v>
       </c>
       <c r="N10" s="8">
-        <f>COUNTIF(D2:D300,"*")</f>
-        <v>178</v>
+        <f>COUNTIF(D2:D246,"*")</f>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3095,8 +3093,8 @@
         <v>390</v>
       </c>
       <c r="N12" s="14">
-        <f>MAX(H2:H300)</f>
-        <v>42794.800651076388</v>
+        <f>MAX(H2:H246)</f>
+        <v>42800.720185057871</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -3135,8 +3133,8 @@
         <v>391</v>
       </c>
       <c r="N13" s="14">
-        <f>MIN(H3:H301)</f>
-        <v>42794.800013078704</v>
+        <f>MIN(H3:H247)</f>
+        <v>42795.467644259261</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6533,1554 +6531,17 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F126" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F127" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F128" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F129" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="9"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F130" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F131" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F132" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F133" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F134" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F135" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E136" s="3"/>
-      <c r="F136" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E137" s="3"/>
-      <c r="F137" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F138" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F141" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="11"/>
-      <c r="J142" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F143" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F144" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="11"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F146" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F149" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H149" s="15"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F150" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H150" s="15"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F151" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H151" s="15"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H152" s="15"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H153" s="15"/>
-      <c r="I153" s="11"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H154" s="15"/>
-      <c r="I154" s="11"/>
-      <c r="J154" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F155" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H155" s="15"/>
-      <c r="I155" s="11"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E156" s="3"/>
-      <c r="F156" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H156" s="15"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K156" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E157" s="3"/>
-      <c r="F157" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H157" s="15"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F158" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H158" s="15"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H159" s="15"/>
-      <c r="I159" s="11"/>
-      <c r="J159" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K159" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F160" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H160" s="15"/>
-      <c r="I160" s="11"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H161" s="15"/>
-      <c r="I161" s="11"/>
-      <c r="J161" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F162" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H162" s="15"/>
-      <c r="I162" s="11"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H163" s="15"/>
-      <c r="I163" s="11"/>
-      <c r="J163" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K163" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F164" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H164" s="15"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H165" s="15"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K165" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F166" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H166" s="15"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K166" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F167" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H167" s="15"/>
-      <c r="I167" s="11"/>
-      <c r="J167" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F168" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H168" s="15"/>
-      <c r="I168" s="11"/>
-      <c r="J168" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F169" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H169" s="15"/>
-      <c r="I169" s="11"/>
-      <c r="J169" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F170" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H170" s="15"/>
-      <c r="I170" s="11"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F171" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H171" s="15"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F172" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H172" s="15"/>
-      <c r="I172" s="11"/>
-      <c r="J172" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K172" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F173" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H173" s="15"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K173" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F174" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H174" s="15"/>
-      <c r="I174" s="11"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F175" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H175" s="15"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K175" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F176" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H176" s="15"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F177" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H177" s="15"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F178" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H178" s="15"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E179" s="3"/>
-      <c r="F179" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H179" s="15"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K179">
+  <autoFilter ref="A1:K125">
     <sortState ref="A2:G179">
       <sortCondition descending="1" ref="A1:A179"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="G133 G126 G128:G131 G136:G175 G2:G123 I2:I123 I136:I175 I128:I131 I126 I133">
+  <conditionalFormatting sqref="G2:G123 I2:I123">
     <cfRule type="cellIs" dxfId="43" priority="23" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G132 I132">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G134 I134">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G135 I135">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8100,51 +6561,11 @@
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127 I127">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E175">
+  <conditionalFormatting sqref="E2:E125">
     <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G176 G178 I178 I176">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E176 E178">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177 G179 I179 I177">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E177 E179">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
+++ b/Domibus-MSH-soapui-tests/src/main/soapui/reports/Domibus_3_2_2_test_results.xlsx
@@ -14,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TESTS_JMS!$A$1:$K$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TESTS_WS!$A$1:$K$125</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="447">
   <si>
     <t>NEED RUNNING - 3rd/green AC enabled</t>
   </si>
@@ -1343,6 +1343,29 @@
   </si>
   <si>
     <t>3.504s</t>
+  </si>
+  <si>
+    <t>69.645s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-03-2017 15:45:31: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
+ |[Script Assertion] Error:waitForStatus: Message in the sender side has status WAITING_FOR_RETRY instead of ACKNOWLEDGED.. Expression: (messageStatus.toLowerCase() == SMSH.toLowerCase())| </t>
+  </si>
+  <si>
+    <t>0.393s</t>
+  </si>
+  <si>
+    <t>22.086s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-03-2017 15:46:47: Test case FAILED on step 1: Submit Message|| Returned error message[s]: 
+ |[Script Assertion] Error:waitForStatus: Message in the sender side has status WAITING_FOR_RETRY instead of ACKNOWLEDGED.. Expression: (messageStatus.toLowerCase() == SMSH.toLowerCase())| </t>
+  </si>
+  <si>
+    <t>1.626s</t>
+  </si>
+  <si>
+    <t>18.351s</t>
   </si>
 </sst>
 </file>
@@ -2650,20 +2673,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="97.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="64.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="76.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="97.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" x14ac:dyDescent="0.3">
@@ -2723,11 +2746,11 @@
       <c r="G2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="15">
-        <v>42795.467577326388</v>
+      <c r="H2" s="15" t="n">
+        <v>42804.69888679398</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
@@ -2760,17 +2783,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="15">
-        <v>42800.659691967594</v>
+        <v>138</v>
+      </c>
+      <c r="H3" s="15" t="n">
+        <v>42804.6574940625</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="13" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>236</v>
@@ -2801,11 +2824,11 @@
       <c r="G4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="15">
-        <v>42800.720185057871</v>
+      <c r="H4" s="15" t="n">
+        <v>42804.699757939816</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -6585,20 +6608,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="97.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="64.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="76.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="97.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="64.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" x14ac:dyDescent="0.3">
